--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZA.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB62D33-E840-401B-BFAF-045A850D9D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3012A8-F3BC-4D48-BB3C-08BF30034517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2804,7 +2804,9 @@
   </sheetPr>
   <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3439,7 +3441,7 @@
       </c>
       <c r="N19" s="20">
         <f>C164-SUMIF(B:B,"missing",C:C)</f>
-        <v>2615</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -6014,10 +6016,7 @@
         <v>2650</v>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="25">
-        <f>SUM(C5:C163)</f>
-        <v>2615</v>
-      </c>
+      <c r="C164" s="25"/>
       <c r="D164" s="7"/>
       <c r="K164" s="1" t="s">
         <v>136</v>
@@ -6044,7 +6043,9 @@
   </sheetPr>
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6675,7 +6676,7 @@
       </c>
       <c r="N19" s="28">
         <f>C172-SUMIF(B:B,"missing",C:C)</f>
-        <v>2649</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -9437,10 +9438,7 @@
       <c r="A172" s="7">
         <v>2684</v>
       </c>
-      <c r="C172" s="13">
-        <f>SUM(C5:C171)</f>
-        <v>2649</v>
-      </c>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="29" t="s">
@@ -9459,7 +9457,9 @@
   </sheetPr>
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13051,10 +13051,7 @@
       <c r="A183" s="7">
         <v>2752</v>
       </c>
-      <c r="C183" s="13">
-        <f>SUM(C5:C182)</f>
-        <v>2722</v>
-      </c>
+      <c r="C183" s="13"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
@@ -13065,7 +13062,7 @@
   <customSheetViews>
     <customSheetView guid="{163EC2F8-7EFC-4C09-8226-E28C40713B41}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L184" xr:uid="{1FD27ACC-0245-42A7-B289-8FC663345CD3}"/>
+      <autoFilter ref="A4:L184" xr:uid="{452D65B3-C1FD-4AD8-9CD3-C2A511DE071E}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="106671713"/>
@@ -13084,7 +13081,9 @@
   </sheetPr>
   <dimension ref="A1:W252"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13710,7 +13709,7 @@
       </c>
       <c r="N19" s="20">
         <f>C251-SUMIF(B5:B250,"missing",C5:C250)</f>
-        <v>2547</v>
+        <v>-7</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -18033,10 +18032,7 @@
         <v>2579</v>
       </c>
       <c r="B251" s="7"/>
-      <c r="C251" s="13">
-        <f>SUM(C5:C250)</f>
-        <v>2554</v>
-      </c>
+      <c r="C251" s="13"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -18084,7 +18080,9 @@
   </sheetPr>
   <dimension ref="A1:X258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23000,10 +22998,7 @@
       <c r="A257" s="13">
         <v>2720</v>
       </c>
-      <c r="C257" s="13">
-        <f>SUM(C5:C256)</f>
-        <v>2685</v>
-      </c>
+      <c r="C257" s="13"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
@@ -23022,7 +23017,9 @@
   </sheetPr>
   <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23652,7 +23649,7 @@
       </c>
       <c r="N19" s="32">
         <f>C228-SUMIF(B5:B228,"missing",C5:C228)</f>
-        <v>2709</v>
+        <v>-11</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -27466,10 +27463,7 @@
       <c r="A228" s="13">
         <v>2800</v>
       </c>
-      <c r="C228" s="13">
-        <f>SUM(C5:C227)</f>
-        <v>2720</v>
-      </c>
+      <c r="C228" s="13"/>
       <c r="K228" s="7" t="s">
         <v>709</v>
       </c>
@@ -27571,7 +27565,7 @@
   <customSheetViews>
     <customSheetView guid="{163EC2F8-7EFC-4C09-8226-E28C40713B41}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L229" xr:uid="{B8702224-E8B9-410C-9518-4549023EB26D}"/>
+      <autoFilter ref="A4:L229" xr:uid="{A9C13D95-30F4-454E-879D-44041DA69D9C}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="578644007"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZA.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3012A8-F3BC-4D48-BB3C-08BF30034517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E813B4-7CAD-4BA5-9DD4-B6D05B2C5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13062,7 +13062,7 @@
   <customSheetViews>
     <customSheetView guid="{163EC2F8-7EFC-4C09-8226-E28C40713B41}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L184" xr:uid="{452D65B3-C1FD-4AD8-9CD3-C2A511DE071E}"/>
+      <autoFilter ref="A4:L184" xr:uid="{FB924B81-55A4-465A-BC02-73686C608B5B}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="106671713"/>
@@ -13081,7 +13081,7 @@
   </sheetPr>
   <dimension ref="A1:W252"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
@@ -18080,8 +18080,8 @@
   </sheetPr>
   <dimension ref="A1:X258"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="C210" s="13">
         <f t="shared" si="0"/>
-        <v>-95</v>
+        <v>5</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>45</v>
@@ -22163,14 +22163,14 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="13">
-        <v>2127</v>
+        <v>2227</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C211" s="13">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>32</v>
@@ -23017,7 +23017,7 @@
   </sheetPr>
   <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
       <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
@@ -27565,7 +27565,7 @@
   <customSheetViews>
     <customSheetView guid="{163EC2F8-7EFC-4C09-8226-E28C40713B41}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L229" xr:uid="{A9C13D95-30F4-454E-879D-44041DA69D9C}"/>
+      <autoFilter ref="A4:L229" xr:uid="{21ADA20B-935C-401E-AC9B-9B1F3249166D}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="578644007"/>
